--- a/ЕРМОЛЕНКО/ерм.xlsx
+++ b/ЕРМОЛЕНКО/ерм.xlsx
@@ -16,16 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ерм</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,6 +40,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -160,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -183,6 +186,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,179 +489,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>1.75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>2.37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>0.34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>0.94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>5.0999999999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>7.42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>2.8</v>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1">
+        <v>600.63750000000005</v>
+      </c>
+      <c r="D1">
+        <v>602.77499999999998</v>
+      </c>
+      <c r="K1" s="1">
+        <v>41.76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2">
+        <v>684.72675000000004</v>
+      </c>
+      <c r="D2">
+        <v>687.1635</v>
+      </c>
+      <c r="K2" s="2">
+        <v>13.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="C3">
+        <v>232.80709500000003</v>
+      </c>
+      <c r="D3">
+        <v>233.63559000000001</v>
+      </c>
+      <c r="K3" s="2">
+        <v>54.95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="C4" s="8">
+        <v>84.3</v>
+      </c>
+      <c r="D4" s="8">
+        <v>84.6</v>
+      </c>
+      <c r="K4" s="2">
+        <v>687.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="C5">
+        <v>10.72</v>
+      </c>
+      <c r="D5" s="9">
+        <f xml:space="preserve"> 0.39*(84.3*0.4+0.3*0.35)</f>
+        <v>13.191749999999999</v>
+      </c>
+      <c r="K5" s="2">
+        <v>233.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="C6">
+        <v>52.48</v>
+      </c>
+      <c r="D6" s="9">
+        <f xml:space="preserve"> 41.76 + 13.19</f>
+        <v>54.949999999999996</v>
+      </c>
+      <c r="K6" s="2">
+        <v>5.52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="C7">
+        <v>2777.46</v>
+      </c>
+      <c r="D7" s="9">
+        <f xml:space="preserve"> 54.95+ 687.16+233.64+5.52+1808.33</f>
+        <v>2789.6</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1808.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2"/>
+      <c r="C8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="D8">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="K8" s="2">
+        <v>2789.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="C9">
+        <v>1801.92</v>
+      </c>
+      <c r="D9">
+        <f>300*D1/100</f>
+        <v>1808.325</v>
+      </c>
+      <c r="K9" s="2">
+        <v>278.95999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="C10">
+        <v>277.75</v>
+      </c>
+      <c r="D10">
+        <f>D7/10</f>
+        <v>278.95999999999998</v>
+      </c>
+      <c r="K10" s="2">
+        <v>3068.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1"/>
+      <c r="C11">
+        <v>3055.21</v>
+      </c>
+      <c r="D11" s="9">
+        <f xml:space="preserve"> 2789.6 + 278.96</f>
+        <v>3068.56</v>
+      </c>
+      <c r="K11" s="2">
+        <v>6131.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="C12">
+        <v>611.04</v>
+      </c>
+      <c r="D12">
+        <f>D11/5</f>
+        <v>613.71199999999999</v>
+      </c>
+      <c r="K12">
+        <f>SUM(K1:K11)</f>
+        <v>15113.419999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="C13">
+        <v>3666.25</v>
+      </c>
+      <c r="D13">
+        <f>3068.6+613.71</f>
+        <v>3682.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="C14">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3"/>
+      <c r="C15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="D15">
+        <f>D5/D13*100</f>
+        <v>0.35824658977652613</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16">
+        <v>0.76</v>
+      </c>
+      <c r="D16">
+        <f>D7/D13</f>
+        <v>0.75756793969003156</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>4.2</v>
-      </c>
+      <c r="A17" s="2"/>
     </row>
     <row r="18" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>1.8</v>
-      </c>
+      <c r="A18" s="2"/>
     </row>
     <row r="19" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>1.74</v>
-      </c>
+      <c r="A19" s="2"/>
     </row>
     <row r="20" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>1.2</v>
-      </c>
+      <c r="A20" s="2"/>
     </row>
     <row r="21" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>0.4</v>
-      </c>
+      <c r="A21" s="2"/>
     </row>
     <row r="22" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>0.4</v>
-      </c>
+      <c r="A22" s="2"/>
     </row>
     <row r="23" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>0.46</v>
-      </c>
+      <c r="A23" s="2"/>
     </row>
     <row r="24" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
+      <c r="A24" s="2"/>
     </row>
     <row r="25" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>0.8</v>
-      </c>
+      <c r="A25" s="2"/>
     </row>
     <row r="26" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>0.2</v>
-      </c>
+      <c r="A26" s="2"/>
     </row>
     <row r="27" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
+      <c r="A27" s="2"/>
     </row>
     <row r="28" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>1.2</v>
-      </c>
+      <c r="A28" s="2"/>
     </row>
     <row r="29" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>3.3</v>
-      </c>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>5.6</v>
-      </c>
+      <c r="A30" s="3"/>
     </row>
     <row r="31" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7">
-        <v>2.3199999999999998</v>
-      </c>
+      <c r="A31" s="7"/>
     </row>
     <row r="32" spans="1:1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f>SUM(A2:A32)</f>
-        <v>84.3</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
